--- a/img_sim/开发日志.xlsx
+++ b/img_sim/开发日志.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\git_repositories\img_sim\img_sim\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0D8B846-8136-4F23-AB8E-4B0C24EFFCD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47564FDE-DCE8-4DA7-9BB8-BCDFA6CBAA5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1196,10 +1196,44 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1、修改中值滤波，改成膨胀
-2、晚上回宿舍仔细研究一下 bd设计里的ip核的更新与删除
+    <r>
+      <t>1、修改中值滤波，改成膨胀
+2、晚上回宿舍仔细研究一下 bd设计里的ip核的更新与删除</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（未完成）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
 3、把腐蚀膨胀算法例化一下做一个开运算模块出来
 4、回宿舍用笔记本调试一下输出640x480格式视频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（未完成）</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1562,7 +1596,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A70" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C71" sqref="C71"/>
+      <selection pane="bottomLeft" activeCell="C76" sqref="C76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>

--- a/img_sim/开发日志.xlsx
+++ b/img_sim/开发日志.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\git_repositories\img_sim\img_sim\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47564FDE-DCE8-4DA7-9BB8-BCDFA6CBAA5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4427F5D6-6AD7-4056-9602-1CE33CE2E9A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="201">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1234,6 +1234,20 @@
       </rPr>
       <t>（未完成）</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024-4-19am</t>
+  </si>
+  <si>
+    <t>2024-4-19pm</t>
+  </si>
+  <si>
+    <t>1、调试640x480输出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、晚上回宿舍一点没学</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1592,11 +1606,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D72"/>
+  <dimension ref="A1:D74"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A70" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C76" sqref="C76"/>
+      <selection pane="bottomLeft" activeCell="D73" sqref="D73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -2473,6 +2487,22 @@
         <v>195</v>
       </c>
     </row>
+    <row r="73" spans="2:4">
+      <c r="B73" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="74" spans="2:4">
+      <c r="B74" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
